--- a/保存先/shuya_natural保存先.xlsx
+++ b/保存先/shuya_natural保存先.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\user\desktop\caluclate_\保存先\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shin2\PycharmProjects\pythonProject\uriage\保存先\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA6848-3842-4675-ADEC-186850C81A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BEC0D05-B999-476F-988E-4B80C4D79559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="9585" windowHeight="10380" tabRatio="964" xr2:uid="{2174A2A8-2382-45E5-AF6C-1910FEE89692}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="964" xr2:uid="{2174A2A8-2382-45E5-AF6C-1910FEE89692}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="15" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$1:$N$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -567,25 +568,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -605,157 +606,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -763,7 +764,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -775,9 +776,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -797,157 +798,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -966,9 +967,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -988,157 +989,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1157,9 +1158,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1179,157 +1180,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1349,13 +1350,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1366,62 +1367,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1441,16 +1442,16 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1470,157 +1471,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1641,16 +1642,16 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1670,157 +1671,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1839,16 +1840,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1868,157 +1869,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2038,9 +2039,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2060,157 +2061,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2227,9 +2228,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2249,157 +2250,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2418,9 +2419,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2440,157 +2441,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2609,9 +2610,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2631,157 +2632,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2800,9 +2801,9 @@
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2822,157 +2823,157 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
